--- a/рис/лабы/линейное программирование.xlsx
+++ b/рис/лабы/линейное программирование.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\221b\Desktop\homework2\рис\лабы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\homework2\рис\лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44808F2F-3911-415E-9D3B-5959B673230E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FA2023-B005-43ED-81DC-BE154E5099FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -493,12 +493,12 @@
   <dimension ref="A3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0.8</v>
       </c>
@@ -533,13 +533,13 @@
         <v>3.8000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E5" s="3">
         <f>2*A4+B4+4*C4+3*D4</f>
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6" s="3">
         <f>3*A4-B4+2*C4+5*D4</f>
         <v>1</v>
